--- a/2016년 재료비 6월/아이로보 재료비.xlsx
+++ b/2016년 재료비 6월/아이로보 재료비.xlsx
@@ -172,40 +172,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -518,8 +518,8 @@
     <col min="5" max="5" width="10.625" style="3" customWidth="1"/>
     <col min="6" max="6" width="20" style="2" customWidth="1"/>
     <col min="7" max="7" width="17.75" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="1"/>
+    <col min="8" max="9" width="9" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.100000000000001" customHeight="1">

--- a/2016년 재료비 6월/아이로보 재료비.xlsx
+++ b/2016년 재료비 6월/아이로보 재료비.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="555" windowWidth="20175" windowHeight="13500"/>
@@ -10,12 +10,12 @@
     <sheet name="아이로보 재료비" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>*주야</t>
   </si>
@@ -41,31 +41,13 @@
     <t>주간</t>
   </si>
   <si>
-    <t>2학년</t>
-  </si>
-  <si>
-    <t>4반</t>
-  </si>
-  <si>
     <t>김준혁</t>
   </si>
   <si>
     <t>자유수강대상자</t>
   </si>
   <si>
-    <t>3학년</t>
-  </si>
-  <si>
-    <t>5반</t>
-  </si>
-  <si>
     <t>이태건</t>
-  </si>
-  <si>
-    <t>4학년</t>
-  </si>
-  <si>
-    <t>1반</t>
   </si>
   <si>
     <t>함하은</t>
@@ -75,6 +57,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
+    <numFmt numFmtId="176" formatCode="General&quot;학년&quot;"/>
+    <numFmt numFmtId="177" formatCode="General&quot;반&quot;"/>
+  </numFmts>
   <fonts count="5">
     <font>
       <sz val="11"/>
@@ -168,45 +154,60 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="177" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -506,23 +507,23 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="10.625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="7.25" style="3" customWidth="1"/>
-    <col min="3" max="3" width="6.125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="9.375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="10.625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="20" style="2" customWidth="1"/>
-    <col min="7" max="7" width="17.75" style="1" customWidth="1"/>
-    <col min="8" max="9" width="9" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="1"/>
+    <col min="2" max="2" width="10.375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="10" style="3" customWidth="1"/>
+    <col min="4" max="4" width="9.875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="11.875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="14.875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="16.875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:7" ht="15" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -545,81 +546,78 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="2" spans="1:7" ht="15" customHeight="1">
       <c r="A2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>9</v>
+      <c r="B2" s="12">
+        <v>2</v>
+      </c>
+      <c r="C2" s="15">
+        <v>4</v>
       </c>
       <c r="D2" s="6">
         <v>6</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="11">
+        <v>8</v>
+      </c>
+      <c r="F2" s="8">
         <v>88000</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="3" spans="1:7" ht="15" customHeight="1">
       <c r="A3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>13</v>
+      <c r="B3" s="13">
+        <v>3</v>
+      </c>
+      <c r="C3" s="16">
+        <v>5</v>
       </c>
       <c r="D3" s="9">
         <v>19</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="11">
+        <v>10</v>
+      </c>
+      <c r="F3" s="8">
         <v>88000</v>
       </c>
       <c r="G3" s="8"/>
     </row>
-    <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="4" spans="1:7" ht="15" customHeight="1">
       <c r="A4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>16</v>
+      <c r="B4" s="14">
+        <v>4</v>
+      </c>
+      <c r="C4" s="17">
+        <v>1</v>
       </c>
       <c r="D4" s="9">
         <v>27</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="11">
+        <v>11</v>
+      </c>
+      <c r="F4" s="8">
         <v>88000</v>
       </c>
       <c r="G4" s="8"/>
     </row>
-    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="F5" s="12">
-        <f>SUM(F2:F4)</f>
-        <v>264000</v>
-      </c>
+    <row r="5" spans="1:7" ht="15" customHeight="1">
+      <c r="F5" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
